--- a/log_history/Y2_B2526_Histology_scanner1761125380929_f8ac944d25c51bea0599e756527a9af7dc35109d5b79c815cc93896fabf99461.xlsx
+++ b/log_history/Y2_B2526_Histology_scanner1761125380929_f8ac944d25c51bea0599e756527a9af7dc35109d5b79c815cc93896fabf99461.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Histology" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Histology_scanner1761125380929_f8ac944d25c51bea0599e756527a9af7dc35109d5b79c815cc93896fabf99461.xlsx
+++ b/log_history/Y2_B2526_Histology_scanner1761125380929_f8ac944d25c51bea0599e756527a9af7dc35109d5b79c815cc93896fabf99461.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Histology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
